--- a/data/pca/factorExposure/factorExposure_2012-11-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-20.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001672386635308058</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002077697529261374</v>
+      </c>
+      <c r="C2">
+        <v>-0.03074319153927481</v>
+      </c>
+      <c r="D2">
+        <v>0.003830520581544871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001626284618152313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006861569937887508</v>
+      </c>
+      <c r="C4">
+        <v>-0.08325156059255955</v>
+      </c>
+      <c r="D4">
+        <v>0.07495250132654722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0006651749352315079</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01442828476884173</v>
+      </c>
+      <c r="C6">
+        <v>-0.1148727022135795</v>
+      </c>
+      <c r="D6">
+        <v>0.03283323949458292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002053907941567396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004742196602475168</v>
+      </c>
+      <c r="C7">
+        <v>-0.05720398987940849</v>
+      </c>
+      <c r="D7">
+        <v>0.03209120285722108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.000412122235041889</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.006009189989003645</v>
+      </c>
+      <c r="C8">
+        <v>-0.03660881046065474</v>
+      </c>
+      <c r="D8">
+        <v>0.04070483576647441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.004244690813083176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004933196255198728</v>
+      </c>
+      <c r="C9">
+        <v>-0.07044195611138906</v>
+      </c>
+      <c r="D9">
+        <v>0.07279320899995176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.001619237444137104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005652763994790999</v>
+      </c>
+      <c r="C10">
+        <v>-0.05774259016936175</v>
+      </c>
+      <c r="D10">
+        <v>-0.1957343281754316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.004317407500312776</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005827047292444439</v>
+      </c>
+      <c r="C11">
+        <v>-0.07948647187897084</v>
+      </c>
+      <c r="D11">
+        <v>0.06115117578852788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.00133085132811056</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004042888806809711</v>
+      </c>
+      <c r="C12">
+        <v>-0.0634669261322352</v>
+      </c>
+      <c r="D12">
+        <v>0.0485399902076598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.001712221718368471</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008970898831188467</v>
+      </c>
+      <c r="C13">
+        <v>-0.06996176826634416</v>
+      </c>
+      <c r="D13">
+        <v>0.05651314119599671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.002608862529612768</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001032377542053498</v>
+      </c>
+      <c r="C14">
+        <v>-0.04404194956036049</v>
+      </c>
+      <c r="D14">
+        <v>0.006196485344762766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0008821205710123337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.00599754009163892</v>
+      </c>
+      <c r="C15">
+        <v>-0.04164136331494644</v>
+      </c>
+      <c r="D15">
+        <v>0.03100074637676458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001918316511574339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005124288540192192</v>
+      </c>
+      <c r="C16">
+        <v>-0.06446681658089261</v>
+      </c>
+      <c r="D16">
+        <v>0.05336868342300205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001251195499406502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008586530898576536</v>
+      </c>
+      <c r="C20">
+        <v>-0.06542630645047466</v>
+      </c>
+      <c r="D20">
+        <v>0.04236618228367301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005739829044587603</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009831906718429704</v>
+      </c>
+      <c r="C21">
+        <v>-0.02187577832723534</v>
+      </c>
+      <c r="D21">
+        <v>0.03713558922802557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01759093051747247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006379288502630961</v>
+      </c>
+      <c r="C22">
+        <v>-0.09314076233004301</v>
+      </c>
+      <c r="D22">
+        <v>0.1151571915535584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01792445347233461</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006193580477301615</v>
+      </c>
+      <c r="C23">
+        <v>-0.09395988380617698</v>
+      </c>
+      <c r="D23">
+        <v>0.1151088937205509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.003600627775913069</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005533795406643859</v>
+      </c>
+      <c r="C24">
+        <v>-0.07615366008887602</v>
+      </c>
+      <c r="D24">
+        <v>0.0669577696936059</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005736413131217874</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003262521148125217</v>
+      </c>
+      <c r="C25">
+        <v>-0.07760425185736787</v>
+      </c>
+      <c r="D25">
+        <v>0.06584027751785497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004285212734863409</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003669098003305313</v>
+      </c>
+      <c r="C26">
+        <v>-0.04026688116611981</v>
+      </c>
+      <c r="D26">
+        <v>0.0212875097732923</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.007364097268171847</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0008018570761720762</v>
+      </c>
+      <c r="C28">
+        <v>-0.1076551955206679</v>
+      </c>
+      <c r="D28">
+        <v>-0.320291642717182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.00155116846661074</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002894115341501459</v>
+      </c>
+      <c r="C29">
+        <v>-0.0498706748094399</v>
+      </c>
+      <c r="D29">
+        <v>0.008673391363166796</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005003252844919096</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.01012269280131424</v>
+      </c>
+      <c r="C30">
+        <v>-0.1416581701238847</v>
+      </c>
+      <c r="D30">
+        <v>0.1042878394433685</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001110766437089272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006336488473193568</v>
+      </c>
+      <c r="C31">
+        <v>-0.04455376480931755</v>
+      </c>
+      <c r="D31">
+        <v>0.02907659483099611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0002250969213467964</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003820618410618551</v>
+      </c>
+      <c r="C32">
+        <v>-0.03810872959724056</v>
+      </c>
+      <c r="D32">
+        <v>0.02470328569212049</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003471027010895159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008831038371465899</v>
+      </c>
+      <c r="C33">
+        <v>-0.08674108559293447</v>
+      </c>
+      <c r="D33">
+        <v>0.06520402959540754</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.00529782944807327</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004098998565122225</v>
+      </c>
+      <c r="C34">
+        <v>-0.05693063891809669</v>
+      </c>
+      <c r="D34">
+        <v>0.05468707619247512</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0009211633284851482</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005045539003343538</v>
+      </c>
+      <c r="C35">
+        <v>-0.03997887155104198</v>
+      </c>
+      <c r="D35">
+        <v>0.01853990745318298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004401470753231959</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001063438968701549</v>
+      </c>
+      <c r="C36">
+        <v>-0.02531573009231082</v>
+      </c>
+      <c r="D36">
+        <v>0.02131831757392831</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001395245996373837</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009264790129510429</v>
+      </c>
+      <c r="C38">
+        <v>-0.03446375511659715</v>
+      </c>
+      <c r="D38">
+        <v>0.01427888002765409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.0142236728092178</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0007158561502278566</v>
+      </c>
+      <c r="C39">
+        <v>-0.1150379608816515</v>
+      </c>
+      <c r="D39">
+        <v>0.0758804710883843</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.01013097599130781</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.003205840734125478</v>
+      </c>
+      <c r="C40">
+        <v>-0.09084558465206527</v>
+      </c>
+      <c r="D40">
+        <v>0.01273441422545052</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0009604825462099049</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007333358035639758</v>
+      </c>
+      <c r="C41">
+        <v>-0.03779180365082761</v>
+      </c>
+      <c r="D41">
+        <v>0.03793357995774956</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003811245131043692</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004024301728053096</v>
+      </c>
+      <c r="C43">
+        <v>-0.05352919262914474</v>
+      </c>
+      <c r="D43">
+        <v>0.02374501101799338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.01610312222356295</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.00339760976820175</v>
+      </c>
+      <c r="C44">
+        <v>-0.1089921868574081</v>
+      </c>
+      <c r="D44">
+        <v>0.0682640332957808</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.0009410595516769539</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.001861676679592817</v>
+      </c>
+      <c r="C46">
+        <v>-0.03278990322759239</v>
+      </c>
+      <c r="D46">
+        <v>0.03505649664074719</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.001117820569832496</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002456672735513053</v>
+      </c>
+      <c r="C47">
+        <v>-0.03696216811227895</v>
+      </c>
+      <c r="D47">
+        <v>0.02267081564921395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003996702650284849</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006802062186947102</v>
+      </c>
+      <c r="C48">
+        <v>-0.0311057096159548</v>
+      </c>
+      <c r="D48">
+        <v>0.03220672081175741</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01392385546581229</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01615748814559042</v>
+      </c>
+      <c r="C49">
+        <v>-0.1833008156441896</v>
+      </c>
+      <c r="D49">
+        <v>0.0162208799695016</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001897727820117947</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003757968994788404</v>
+      </c>
+      <c r="C50">
+        <v>-0.04329966366249453</v>
+      </c>
+      <c r="D50">
+        <v>0.03708201593115802</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-6.460350406484296e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004703933176620156</v>
+      </c>
+      <c r="C51">
+        <v>-0.02595735651479172</v>
+      </c>
+      <c r="D51">
+        <v>0.02096329291326962</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0009406358197473398</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02122463885433809</v>
+      </c>
+      <c r="C53">
+        <v>-0.1697037125749313</v>
+      </c>
+      <c r="D53">
+        <v>0.02848911726042887</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001387270629963757</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.0088465869771436</v>
+      </c>
+      <c r="C54">
+        <v>-0.05433375630407652</v>
+      </c>
+      <c r="D54">
+        <v>0.04489792276485532</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.006050264236719708</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009396497630132936</v>
+      </c>
+      <c r="C55">
+        <v>-0.1101804153854891</v>
+      </c>
+      <c r="D55">
+        <v>0.03894549163609073</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.0006137819650765629</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02034102142091187</v>
+      </c>
+      <c r="C56">
+        <v>-0.174244211233575</v>
+      </c>
+      <c r="D56">
+        <v>0.01848414168189675</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009745008269251771</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01935203015502752</v>
+      </c>
+      <c r="C58">
+        <v>-0.1092398181922429</v>
+      </c>
+      <c r="D58">
+        <v>0.06352876053944148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009369460362596806</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01019974858203562</v>
+      </c>
+      <c r="C59">
+        <v>-0.1659605260982311</v>
+      </c>
+      <c r="D59">
+        <v>-0.3319923457811828</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.00615907839436736</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02509141541215731</v>
+      </c>
+      <c r="C60">
+        <v>-0.2230856323031134</v>
+      </c>
+      <c r="D60">
+        <v>0.02947424127328846</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.0156096809667866</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001667261528466747</v>
+      </c>
+      <c r="C61">
+        <v>-0.09466766735987073</v>
+      </c>
+      <c r="D61">
+        <v>0.05655353258556606</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1588232858262901</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1471714643167552</v>
+      </c>
+      <c r="C62">
+        <v>-0.09361987439351915</v>
+      </c>
+      <c r="D62">
+        <v>0.03722121718564986</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001126202866393367</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006563443400151626</v>
+      </c>
+      <c r="C63">
+        <v>-0.05480204079694418</v>
+      </c>
+      <c r="D63">
+        <v>0.02573029638937091</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.001531397526693633</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01512338006880381</v>
+      </c>
+      <c r="C64">
+        <v>-0.1057917013684928</v>
+      </c>
+      <c r="D64">
+        <v>0.06036985534611512</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002066634449452081</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01812630915121347</v>
+      </c>
+      <c r="C65">
+        <v>-0.1247023655744009</v>
+      </c>
+      <c r="D65">
+        <v>0.02315887497680657</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.008236489034253712</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01342532188959548</v>
+      </c>
+      <c r="C66">
+        <v>-0.1589437855656102</v>
+      </c>
+      <c r="D66">
+        <v>0.1145100103097994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.002918991678354957</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01565160037146231</v>
+      </c>
+      <c r="C67">
+        <v>-0.06541251827579535</v>
+      </c>
+      <c r="D67">
+        <v>0.02621352652288092</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.007046599215036058</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001163437299114209</v>
+      </c>
+      <c r="C68">
+        <v>-0.0871349069876446</v>
+      </c>
+      <c r="D68">
+        <v>-0.2614726271327227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002305492093911142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006045462687487544</v>
+      </c>
+      <c r="C69">
+        <v>-0.05102581487414558</v>
+      </c>
+      <c r="D69">
+        <v>0.03751840933725176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0004635172429869343</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00177863763846167</v>
+      </c>
+      <c r="C70">
+        <v>-0.00267712033326641</v>
+      </c>
+      <c r="D70">
+        <v>0.001176336322137148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001451840435612836</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006191793560167472</v>
+      </c>
+      <c r="C71">
+        <v>-0.09460664266248832</v>
+      </c>
+      <c r="D71">
+        <v>-0.3039558209507318</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.00637749569495341</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01620403762368192</v>
+      </c>
+      <c r="C72">
+        <v>-0.1534177014282919</v>
+      </c>
+      <c r="D72">
+        <v>0.01444369093176821</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.0159306935334577</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03161936265826362</v>
+      </c>
+      <c r="C73">
+        <v>-0.2808291334199321</v>
+      </c>
+      <c r="D73">
+        <v>0.06128731708031503</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.006930256046788534</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002360077498237443</v>
+      </c>
+      <c r="C74">
+        <v>-0.1040263351633002</v>
+      </c>
+      <c r="D74">
+        <v>0.03441320366788469</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.004366616249769799</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01146847361127612</v>
+      </c>
+      <c r="C75">
+        <v>-0.1244372204411302</v>
+      </c>
+      <c r="D75">
+        <v>0.02106433642753273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.005075469171407192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02251387898180424</v>
+      </c>
+      <c r="C76">
+        <v>-0.1489547932415336</v>
+      </c>
+      <c r="D76">
+        <v>0.05622083922024702</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.003905204452151272</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02267512553309253</v>
+      </c>
+      <c r="C77">
+        <v>-0.1161007019573059</v>
+      </c>
+      <c r="D77">
+        <v>0.07954157221102773</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0001135494985680432</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01522553880617351</v>
+      </c>
+      <c r="C78">
+        <v>-0.0966811097526054</v>
+      </c>
+      <c r="D78">
+        <v>0.07272046050748142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02112808877482421</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.0378323357217429</v>
+      </c>
+      <c r="C79">
+        <v>-0.1570018766588225</v>
+      </c>
+      <c r="D79">
+        <v>0.03174694261680085</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.00523694373608607</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01012216874415065</v>
+      </c>
+      <c r="C80">
+        <v>-0.03958346511450602</v>
+      </c>
+      <c r="D80">
+        <v>0.02957842872157809</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0002819997487156343</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01623753372327252</v>
+      </c>
+      <c r="C81">
+        <v>-0.1289603856909043</v>
+      </c>
+      <c r="D81">
+        <v>0.04109149132235427</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.002128002252950745</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02006008283686632</v>
+      </c>
+      <c r="C82">
+        <v>-0.1406469240732136</v>
+      </c>
+      <c r="D82">
+        <v>0.03829200169438906</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.006401537445808514</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01009160680133513</v>
+      </c>
+      <c r="C83">
+        <v>-0.05547902283947693</v>
+      </c>
+      <c r="D83">
+        <v>0.05555213027255521</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.0122492196873122</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01124584702479984</v>
+      </c>
+      <c r="C84">
+        <v>-0.03702515276999826</v>
+      </c>
+      <c r="D84">
+        <v>-7.926717067278963e-05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01188967426359729</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02907759188067118</v>
+      </c>
+      <c r="C85">
+        <v>-0.1251819653711157</v>
+      </c>
+      <c r="D85">
+        <v>0.04363256692452888</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003093160328681293</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004830744040026938</v>
+      </c>
+      <c r="C86">
+        <v>-0.04930184380018214</v>
+      </c>
+      <c r="D86">
+        <v>0.03104354749186921</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.00459949552642475</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01096304024185295</v>
+      </c>
+      <c r="C87">
+        <v>-0.1284501545886134</v>
+      </c>
+      <c r="D87">
+        <v>0.07289826820289051</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01164355842787486</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.0027560222268038</v>
+      </c>
+      <c r="C88">
+        <v>-0.0650107934615472</v>
+      </c>
+      <c r="D88">
+        <v>0.01963631776151958</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01559031540432221</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001187405341579552</v>
+      </c>
+      <c r="C89">
+        <v>-0.1475894743753935</v>
+      </c>
+      <c r="D89">
+        <v>-0.3289165965138656</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002992207937254393</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007071935908799557</v>
+      </c>
+      <c r="C90">
+        <v>-0.1211958079650456</v>
+      </c>
+      <c r="D90">
+        <v>-0.3164248259532738</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001420764116710958</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01051592682691812</v>
+      </c>
+      <c r="C91">
+        <v>-0.1001377191557122</v>
+      </c>
+      <c r="D91">
+        <v>0.02365279534532013</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01048605555965226</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001256224796023565</v>
+      </c>
+      <c r="C92">
+        <v>-0.1366464015828221</v>
+      </c>
+      <c r="D92">
+        <v>-0.3220537310948897</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.002238805554061857</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005353484330758089</v>
+      </c>
+      <c r="C93">
+        <v>-0.1061900967953754</v>
+      </c>
+      <c r="D93">
+        <v>-0.2998822528609243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0004536936710097308</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02258854602244302</v>
+      </c>
+      <c r="C94">
+        <v>-0.1454117484295268</v>
+      </c>
+      <c r="D94">
+        <v>0.05151188524638899</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.003639170387956558</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01740469283346632</v>
+      </c>
+      <c r="C95">
+        <v>-0.1247435390156068</v>
+      </c>
+      <c r="D95">
+        <v>0.05855040704301921</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001606095747143241</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.0366655875065694</v>
+      </c>
+      <c r="C97">
+        <v>-0.2169625063873444</v>
+      </c>
+      <c r="D97">
+        <v>-0.01400599916633132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.004908155073789568</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03756692795782533</v>
+      </c>
+      <c r="C98">
+        <v>-0.2490044286708075</v>
+      </c>
+      <c r="D98">
+        <v>0.04898758818079382</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9851924689347192</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9816086955540421</v>
+      </c>
+      <c r="C99">
+        <v>0.1193026572208172</v>
+      </c>
+      <c r="D99">
+        <v>-0.02609131405481658</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001474316173729673</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.002934476288106513</v>
+      </c>
+      <c r="C101">
+        <v>-0.05001100420279156</v>
+      </c>
+      <c r="D101">
+        <v>0.009049136802024437</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
